--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,54 +52,57 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -109,31 +112,31 @@
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -610,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.369098712446352</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -710,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2441860465116279</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,69 +731,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <v>22</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.225</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +781,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,21 +807,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +859,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7586206896551724</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.69375</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6712328767123288</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5774647887323944</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5357142857142857</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4806201550387597</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4666666666666667</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4571428571428571</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4021739130434783</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3783783783783784</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.03658536585365853</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,33 +1301,85 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>395</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.04031354983202688</v>
+      </c>
+      <c r="L28">
+        <v>36</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>0.97</v>
+      </c>
+      <c r="O28">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.0352112676056338</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>411</v>
+      <c r="K29">
+        <v>0.03107658157602664</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.009339774557165861</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -73,6 +73,9 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
@@ -82,24 +85,24 @@
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -112,18 +115,18 @@
     <t>hand</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -133,7 +136,7 @@
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -502,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5924657534246576</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -663,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1937984496124031</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>416</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1746031746031746</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,21 +758,45 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>153</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,21 +808,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,21 +834,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7890625</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,21 +860,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,21 +886,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,21 +912,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7183098591549296</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7169811320754716</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,21 +964,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.69375</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6862745098039216</v>
+        <v>0.68</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -994,16 +1021,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6808510638297872</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.66</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6276595744680851</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6031746031746031</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,12 +1120,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.5625</v>
@@ -1124,16 +1151,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5221932114882507</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L22">
         <v>32</v>
       </c>
-      <c r="K22">
-        <v>0.4915254237288136</v>
-      </c>
-      <c r="L22">
-        <v>145</v>
-      </c>
       <c r="M22">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4823529411764706</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L23">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M23">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4606741573033708</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4520547945205479</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4102564102564102</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3389121338912134</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L27">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M27">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,85 +1328,85 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.04031354983202688</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L28">
         <v>36</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.03107658157602664</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>873</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.009339774557165861</v>
+        <v>0.008054123711340205</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>3076</v>
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
